--- a/files_list.xlsx
+++ b/files_list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aaa45\Documents\GitHub\TCP-fork\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A0E40D1-FC8E-407F-B9A5-29055B0C414D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE0FD371-737D-4979-8A08-4AA9004E7F58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14256" yWindow="3336" windowWidth="23040" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="24" windowWidth="23040" windowHeight="12120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Status" sheetId="2" r:id="rId1"/>
@@ -11310,8 +11310,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B964397D-783E-4573-ADB5-6C748C7D3655}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -11339,7 +11339,7 @@
     <row r="2" spans="1:4">
       <c r="A2" s="9">
         <f>COUNTIF('File List'!C:C,1)</f>
-        <v>295</v>
+        <v>306</v>
       </c>
       <c r="B2" s="7">
         <f>COUNTIF('File List'!C:C,2)</f>
@@ -11347,11 +11347,11 @@
       </c>
       <c r="C2" s="8">
         <f>MAX('File List'!A:A)-A2-B2+1</f>
-        <v>1636</v>
+        <v>1625</v>
       </c>
       <c r="D2" s="11">
         <f>A2/MAX('File List'!A:A)</f>
-        <v>0.152218782249742</v>
+        <v>0.15789473684210525</v>
       </c>
     </row>
   </sheetData>
@@ -11364,9 +11364,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D1939"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A101" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C116" sqref="C116"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A121" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C128" sqref="C128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -13122,6 +13122,9 @@
       <c r="B117" s="2" t="s">
         <v>114</v>
       </c>
+      <c r="C117">
+        <v>1</v>
+      </c>
       <c r="D117" s="1" t="s">
         <v>1749</v>
       </c>
@@ -13134,6 +13137,9 @@
       <c r="B118" s="2" t="s">
         <v>115</v>
       </c>
+      <c r="C118">
+        <v>1</v>
+      </c>
       <c r="D118" s="1" t="s">
         <v>1750</v>
       </c>
@@ -13146,6 +13152,9 @@
       <c r="B119" s="2" t="s">
         <v>116</v>
       </c>
+      <c r="C119">
+        <v>1</v>
+      </c>
       <c r="D119" s="1" t="s">
         <v>1751</v>
       </c>
@@ -13158,6 +13167,9 @@
       <c r="B120" s="2" t="s">
         <v>117</v>
       </c>
+      <c r="C120">
+        <v>1</v>
+      </c>
       <c r="D120" s="1" t="s">
         <v>1752</v>
       </c>
@@ -13170,6 +13182,9 @@
       <c r="B121" s="2" t="s">
         <v>118</v>
       </c>
+      <c r="C121">
+        <v>1</v>
+      </c>
       <c r="D121" s="1" t="s">
         <v>1753</v>
       </c>
@@ -13182,6 +13197,9 @@
       <c r="B122" s="2" t="s">
         <v>119</v>
       </c>
+      <c r="C122">
+        <v>1</v>
+      </c>
       <c r="D122" s="1" t="s">
         <v>1754</v>
       </c>
@@ -13194,6 +13212,9 @@
       <c r="B123" s="2" t="s">
         <v>120</v>
       </c>
+      <c r="C123">
+        <v>1</v>
+      </c>
       <c r="D123" s="1" t="s">
         <v>1755</v>
       </c>
@@ -13206,6 +13227,9 @@
       <c r="B124" s="2" t="s">
         <v>121</v>
       </c>
+      <c r="C124">
+        <v>1</v>
+      </c>
       <c r="D124" s="1" t="s">
         <v>1756</v>
       </c>
@@ -13218,6 +13242,9 @@
       <c r="B125" s="2" t="s">
         <v>122</v>
       </c>
+      <c r="C125">
+        <v>1</v>
+      </c>
       <c r="D125" s="1" t="s">
         <v>1757</v>
       </c>
@@ -13230,6 +13257,9 @@
       <c r="B126" s="2" t="s">
         <v>123</v>
       </c>
+      <c r="C126">
+        <v>1</v>
+      </c>
       <c r="D126" s="1" t="s">
         <v>1758</v>
       </c>
@@ -13241,6 +13271,9 @@
       </c>
       <c r="B127" s="2" t="s">
         <v>124</v>
+      </c>
+      <c r="C127">
+        <v>1</v>
       </c>
       <c r="D127" s="1" t="s">
         <v>1759</v>

--- a/files_list.xlsx
+++ b/files_list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aaa45\Documents\GitHub\TCP-fork\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE0FD371-737D-4979-8A08-4AA9004E7F58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1F8C04D-142F-4315-86D9-B7AA4BB82D9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="24" windowWidth="23040" windowHeight="12120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Status" sheetId="2" r:id="rId1"/>
@@ -11339,7 +11339,7 @@
     <row r="2" spans="1:4">
       <c r="A2" s="9">
         <f>COUNTIF('File List'!C:C,1)</f>
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="B2" s="7">
         <f>COUNTIF('File List'!C:C,2)</f>
@@ -11347,11 +11347,11 @@
       </c>
       <c r="C2" s="8">
         <f>MAX('File List'!A:A)-A2-B2+1</f>
-        <v>1625</v>
+        <v>1620</v>
       </c>
       <c r="D2" s="11">
         <f>A2/MAX('File List'!A:A)</f>
-        <v>0.15789473684210525</v>
+        <v>0.16047471620227038</v>
       </c>
     </row>
   </sheetData>
@@ -11366,7 +11366,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A121" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C128" sqref="C128"/>
+      <selection pane="bottomLeft" activeCell="C138" sqref="C138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -13287,6 +13287,9 @@
       <c r="B128" s="2" t="s">
         <v>125</v>
       </c>
+      <c r="C128">
+        <v>1</v>
+      </c>
       <c r="D128" s="1" t="s">
         <v>1760</v>
       </c>
@@ -13299,6 +13302,9 @@
       <c r="B129" s="2" t="s">
         <v>126</v>
       </c>
+      <c r="C129">
+        <v>1</v>
+      </c>
       <c r="D129" s="1" t="s">
         <v>1761</v>
       </c>
@@ -13311,6 +13317,9 @@
       <c r="B130" s="2" t="s">
         <v>127</v>
       </c>
+      <c r="C130">
+        <v>1</v>
+      </c>
       <c r="D130" s="1" t="s">
         <v>1762</v>
       </c>
@@ -13323,6 +13332,9 @@
       <c r="B131" s="2" t="s">
         <v>128</v>
       </c>
+      <c r="C131">
+        <v>1</v>
+      </c>
       <c r="D131" s="1" t="s">
         <v>1763</v>
       </c>
@@ -13334,6 +13346,9 @@
       </c>
       <c r="B132" s="2" t="s">
         <v>129</v>
+      </c>
+      <c r="C132">
+        <v>1</v>
       </c>
       <c r="D132" s="1" t="s">
         <v>1764</v>
